--- a/ExcelFiles/blog.xlsx
+++ b/ExcelFiles/blog.xlsx
@@ -1,22 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26712"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/16300b0c7e6b1157/Bureau/McGill1/CapstoneProject/PollsPlanet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{71821D2D-20DC-4519-8DF6-66C4E7F95AB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7FFF5234-9667-4D8C-85F2-4E4ED234A308}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5918A9A8-8756-4938-BFBB-4054F3A24216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191028" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -25,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
   <si>
     <t>Team member</t>
   </si>
@@ -75,6 +86,12 @@
     <t>Milestone 1</t>
   </si>
   <si>
+    <t>Milestone 2</t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
     <t>meeting in class</t>
   </si>
   <si>
@@ -147,15 +164,18 @@
     <t>resolved</t>
   </si>
   <si>
-    <t>Milestone 2</t>
-  </si>
-  <si>
-    <t>Sprint 1</t>
-  </si>
-  <si>
     <t>Sprint 2</t>
   </si>
   <si>
+    <t>frontend</t>
+  </si>
+  <si>
+    <t>create sign-in/sign-up pages</t>
+  </si>
+  <si>
+    <t>create contact-us pages</t>
+  </si>
+  <si>
     <t>database and server</t>
   </si>
   <si>
@@ -163,6 +183,18 @@
   </si>
   <si>
     <t>more routes are functioning</t>
+  </si>
+  <si>
+    <t>create main survays page and update survay page</t>
+  </si>
+  <si>
+    <t>frontend and server</t>
+  </si>
+  <si>
+    <t>store answers into DB middleware for corn policy</t>
+  </si>
+  <si>
+    <t>login validation, cookies, connect to DB(get users)</t>
   </si>
   <si>
     <t>db diagram</t>
@@ -181,7 +213,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -482,6 +514,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -509,21 +553,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -905,33 +937,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="7.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="6.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="47.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="50.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="47.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="50.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -948,38 +980,38 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="28" t="s">
+    <row r="4" spans="1:10">
+      <c r="A4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="28"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="29" t="s">
+      <c r="B4" s="19"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="30" t="s">
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="22" t="s">
+      <c r="I5" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="23" t="s">
+      <c r="J5" s="27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="29"/>
+    <row r="6" spans="1:10">
+      <c r="A6" s="20"/>
       <c r="B6" s="5" t="s">
         <v>1</v>
       </c>
@@ -995,56 +1027,56 @@
       <c r="F6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="30"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="23"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="24" t="s">
+      <c r="G6" s="21"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="27"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-    </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1">
       <c r="A8" s="11"/>
       <c r="J8" s="9"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10">
       <c r="A9" s="11"/>
       <c r="J9" s="9"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10">
       <c r="A10" s="11"/>
       <c r="J10" s="9"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10">
       <c r="A11" s="11"/>
       <c r="J11" s="9"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10">
+      <c r="A12" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="15"/>
       <c r="B13"/>
       <c r="C13"/>
@@ -1056,33 +1088,33 @@
       <c r="I13"/>
       <c r="J13" s="16"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10">
       <c r="A14" s="11"/>
       <c r="J14" s="9"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10">
       <c r="A15" s="11"/>
       <c r="J15" s="9"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10">
       <c r="A16" s="11"/>
       <c r="J16" s="9"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A17" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="21"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18">
+      <c r="A17" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="25"/>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="8">
         <v>45118</v>
       </c>
@@ -1102,24 +1134,24 @@
         <v>1</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H18" s="1">
         <v>15</v>
       </c>
-      <c r="I18" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="J18" s="26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="I18" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="8"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="26"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="I19" s="29"/>
+      <c r="J19" s="30"/>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="8">
         <v>45118</v>
       </c>
@@ -1139,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H20" s="1">
         <v>4</v>
@@ -1153,7 +1185,7 @@
       <c r="P20"/>
       <c r="Q20"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:18">
       <c r="A21" s="8">
         <v>45118</v>
       </c>
@@ -1173,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H21" s="1">
         <v>2</v>
@@ -1188,7 +1220,7 @@
       <c r="Q21"/>
       <c r="R21"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:18">
       <c r="A22" s="8">
         <v>45118</v>
       </c>
@@ -1208,16 +1240,16 @@
         <v>0</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H22" s="1">
         <v>4</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="8">
         <v>45118</v>
       </c>
@@ -1237,17 +1269,17 @@
         <v>0</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H23" s="1">
         <v>4</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J23" s="9"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:18">
       <c r="A24" s="8">
         <v>45120</v>
       </c>
@@ -1267,19 +1299,19 @@
         <v>0</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H24" s="1">
         <v>4</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="8">
         <v>45120</v>
       </c>
@@ -1299,19 +1331,19 @@
         <v>1</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H25" s="1">
         <v>15</v>
       </c>
       <c r="I25" s="17" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26" s="8">
         <v>45120</v>
       </c>
@@ -1331,17 +1363,17 @@
         <v>1</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H26" s="1">
         <v>2</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J26" s="9"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:18">
       <c r="A27" s="8">
         <v>45121</v>
       </c>
@@ -1361,17 +1393,17 @@
         <v>1</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H27" s="1">
         <v>35</v>
       </c>
       <c r="I27" s="17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J27" s="9"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:18">
       <c r="A28" s="8">
         <v>45121</v>
       </c>
@@ -1391,17 +1423,17 @@
         <v>0</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H28" s="1">
         <v>2</v>
       </c>
       <c r="I28" s="17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J28" s="9"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:18">
       <c r="A29" s="8">
         <v>45122</v>
       </c>
@@ -1421,17 +1453,17 @@
         <v>1</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H29" s="1">
         <v>2</v>
       </c>
       <c r="I29" s="17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J29" s="9"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:18">
       <c r="A30" s="8">
         <v>45123</v>
       </c>
@@ -1451,51 +1483,51 @@
         <v>0</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H30" s="1">
         <v>4</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31" s="11"/>
       <c r="J31" s="9"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A32" s="19" t="s">
+    <row r="32" spans="1:18">
+      <c r="A32" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="21"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="25"/>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="8">
-        <v>45125</v>
+        <v>45124</v>
       </c>
       <c r="B33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" s="1">
         <v>0</v>
       </c>
       <c r="E33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" s="1">
         <v>0</v>
@@ -1509,127 +1541,257 @@
       <c r="I33" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J33" s="9" t="s">
+      <c r="J33" s="9"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="8">
+        <v>45124</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H34" s="1">
+        <v>4</v>
+      </c>
+      <c r="I34" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A34" s="8">
+      <c r="J34" s="9"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="8">
+        <v>45125</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" s="1">
+        <v>4</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="8">
+        <v>45125</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H36" s="1">
+        <v>3</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J36" s="9"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="8">
+        <v>45125</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H37" s="1">
+        <v>6</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J37" s="9"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="8">
         <v>45126</v>
       </c>
-      <c r="B34" s="1">
-        <v>1</v>
-      </c>
-      <c r="C34" s="1">
-        <v>0</v>
-      </c>
-      <c r="D34" s="1">
-        <v>0</v>
-      </c>
-      <c r="E34" s="1">
-        <v>0</v>
-      </c>
-      <c r="F34" s="1">
-        <v>0</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H34" s="1">
+      <c r="B38" s="1">
+        <v>0</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H38" s="1">
+        <v>5</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J38" s="9"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="8">
+        <v>45126</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H39" s="1">
         <v>2</v>
       </c>
-      <c r="I34" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J34" s="9"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A35" s="8">
+      <c r="I39" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J39" s="9"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="8">
         <v>45126</v>
       </c>
-      <c r="B35" s="1">
-        <v>1</v>
-      </c>
-      <c r="C35" s="1">
-        <v>0</v>
-      </c>
-      <c r="D35" s="1">
-        <v>0</v>
-      </c>
-      <c r="E35" s="1">
-        <v>1</v>
-      </c>
-      <c r="F35" s="1">
-        <v>0</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H35" s="1">
+      <c r="B40" s="1">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H40" s="1">
         <v>2</v>
       </c>
-      <c r="I35" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J35" s="9"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A36" s="11"/>
-      <c r="J36" s="9"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A37" s="11"/>
-      <c r="J37" s="9"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A38" s="11"/>
-      <c r="J38" s="9"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A39" s="11"/>
-      <c r="J39" s="9"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A40" s="11"/>
+      <c r="I40" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="J40" s="9"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10">
       <c r="A41" s="11"/>
       <c r="J41" s="9"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10">
       <c r="A42" s="11"/>
       <c r="J42" s="9"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10">
       <c r="A43" s="11"/>
       <c r="J43" s="9"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10">
       <c r="A44" s="11"/>
       <c r="J44" s="9"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10">
       <c r="A45" s="11"/>
       <c r="J45" s="9"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10">
       <c r="A46" s="11"/>
       <c r="J46" s="9"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10">
       <c r="A47" s="11"/>
       <c r="J47" s="9"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10">
       <c r="A48" s="11"/>
       <c r="J48" s="9"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10">
       <c r="A49" s="11"/>
       <c r="J49" s="9"/>
     </row>
-    <row r="50" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:10" ht="15" thickBot="1">
       <c r="A50" s="12"/>
       <c r="B50" s="13"/>
       <c r="C50" s="13"/>
@@ -1643,11 +1805,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="G5:G6"/>
     <mergeCell ref="A12:J12"/>
     <mergeCell ref="A17:J17"/>
     <mergeCell ref="A32:J32"/>
@@ -1657,6 +1814,11 @@
     <mergeCell ref="A7:J7"/>
     <mergeCell ref="I18:I19"/>
     <mergeCell ref="J18:J19"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="G5:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
